--- a/todo.xlsx
+++ b/todo.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,19 +507,19 @@
       <c r="G2" s="1"/>
       <c r="H2" s="2">
         <f>SUM(B1:B99)/60</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(C1:C99)/60</f>
-        <v>1.0833333333333335</v>
+        <v>1.3500000000000005</v>
       </c>
       <c r="J2" s="2">
         <f>H2*AVERAGE(F1:F99)</f>
-        <v>1.8611111111111112</v>
+        <v>1.8562500000000008</v>
       </c>
       <c r="K2" s="2">
         <f>J2-I2</f>
-        <v>0.77777777777777768</v>
+        <v>0.50625000000000031</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="1"/>
@@ -588,11 +588,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="6">
-        <v>30</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <f>(E5-D5)*1440</f>
+        <v>16.000000000000021</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.24444444444444446</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.25555555555555559</v>
+      </c>
+      <c r="F5" s="9">
+        <f>C5/B5</f>
+        <v>1.066666666666668</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="7"/>
       <c r="I5" s="1"/>
@@ -608,7 +619,9 @@
       <c r="B6" s="6">
         <v>30</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8">
+        <v>0.25555555555555559</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="G6" s="1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -60,7 +60,10 @@
     <t>Add GPS support</t>
   </si>
   <si>
-    <t>Add search and directions</t>
+    <t>Add directions</t>
+  </si>
+  <si>
+    <t>Add search</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,19 +510,19 @@
       <c r="G2" s="1"/>
       <c r="H2" s="2">
         <f>SUM(B1:B99)/60</f>
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(C1:C99)/60</f>
-        <v>1.3500000000000005</v>
+        <v>3.2666666666666666</v>
       </c>
       <c r="J2" s="2">
         <f>H2*AVERAGE(F1:F99)</f>
-        <v>1.8562500000000008</v>
+        <v>3.9233333333333342</v>
       </c>
       <c r="K2" s="2">
         <f>J2-I2</f>
-        <v>0.50625000000000031</v>
+        <v>0.65666666666666762</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="1"/>
@@ -619,11 +622,20 @@
       <c r="B6" s="6">
         <v>30</v>
       </c>
+      <c r="C6" s="2">
+        <f>(E6-D6)*1440</f>
+        <v>114.99999999999999</v>
+      </c>
       <c r="D6" s="8">
-        <v>0.25555555555555559</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="F6" s="9">
+        <f>C6/B6</f>
+        <v>3.833333333333333</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="J6" s="1"/>
       <c r="M6" s="12"/>
@@ -631,8 +643,12 @@
       <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9">
+        <v>30</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -137,6 +137,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,13 +444,15 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="2"/>
+    <col min="2" max="9" width="9.109375" style="2"/>
+    <col min="10" max="10" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -514,15 +519,15 @@
       </c>
       <c r="I2" s="2">
         <f>SUM(C1:C99)/60</f>
-        <v>3.2666666666666666</v>
+        <v>5.1000000000000023</v>
       </c>
       <c r="J2" s="2">
-        <f>H2*AVERAGE(F1:F99)</f>
-        <v>3.9233333333333342</v>
+        <f>H2*J3</f>
+        <v>4.950000000000002</v>
       </c>
       <c r="K2" s="2">
         <f>J2-I2</f>
-        <v>0.65666666666666762</v>
+        <v>-0.15000000000000036</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="1"/>
@@ -552,7 +557,10 @@
       <c r="G3" s="1"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="15">
+        <f>AVERAGE(F1:F99)</f>
+        <v>1.8000000000000007</v>
+      </c>
       <c r="M3" s="12"/>
       <c r="N3" s="1"/>
       <c r="O3" s="13"/>
@@ -624,17 +632,17 @@
       </c>
       <c r="C6" s="2">
         <f>(E6-D6)*1440</f>
-        <v>114.99999999999999</v>
+        <v>150.00000000000003</v>
       </c>
       <c r="D6" s="8">
         <v>0.1111111111111111</v>
       </c>
       <c r="E6" s="8">
-        <v>0.19097222222222221</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="F6" s="9">
         <f>C6/B6</f>
-        <v>3.833333333333333</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="G6" s="1"/>
       <c r="J6" s="1"/>
@@ -649,10 +657,20 @@
       <c r="B7" s="9">
         <v>30</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="9">
+        <f>(E7-D7)*1440</f>
+        <v>75.000000000000057</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="F7" s="9">
+        <f>C7/B7</f>
+        <v>2.5000000000000018</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
